--- a/biology/Écologie/Dictionnaire_de_la_pensée_écologique/Dictionnaire_de_la_pensée_écologique.xlsx
+++ b/biology/Écologie/Dictionnaire_de_la_pensée_écologique/Dictionnaire_de_la_pensée_écologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dictionnaire_de_la_pens%C3%A9e_%C3%A9cologique</t>
+          <t>Dictionnaire_de_la_pensée_écologique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Dictionnaire de la pensée écologique est un dictionnaire paru en 2015 dont les entrées concernent l'écologie en général : l'écologie scientifique, l'écologie politique, l'écologisme, ainsi que des réflexions sur l'état de la planète. L'ouvrage collectif, édité aux Presses universitaires de France par Dominique Bourg et Alain Papaux, comprend 357 articles, rédigés par 233 auteurs[1].
+Le Dictionnaire de la pensée écologique est un dictionnaire paru en 2015 dont les entrées concernent l'écologie en général : l'écologie scientifique, l'écologie politique, l'écologisme, ainsi que des réflexions sur l'état de la planète. L'ouvrage collectif, édité aux Presses universitaires de France par Dominique Bourg et Alain Papaux, comprend 357 articles, rédigés par 233 auteurs.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dictionnaire_de_la_pens%C3%A9e_%C3%A9cologique</t>
+          <t>Dictionnaire_de_la_pensée_écologique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Thèmes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les entrées concernent :
 Des notions fondamentales, notamment l'Agenda 21, le climat, la décroissance économique, la pensée écologique, la pollution ;
